--- a/5_klass.xlsx
+++ b/5_klass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Димка\dimono39.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28CD5C9-E166-454B-BDDD-A142D75DF626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6421F5B8-9B70-4BD8-8FC9-4EE987EFB1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FF15B79-8685-43FE-925C-F78989B5839D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
   <si>
     <t>Класс</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899C4776-E3FF-412C-B96C-6A714E7A5167}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -474,7 +474,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -511,6 +511,104 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>

--- a/5_klass.xlsx
+++ b/5_klass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Димка\dimono39.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6421F5B8-9B70-4BD8-8FC9-4EE987EFB1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E01729-F855-4582-9B4A-BCA108BF98B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FF15B79-8685-43FE-925C-F78989B5839D}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -474,7 +474,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
